--- a/biology/Histoire de la zoologie et de la botanique/August_Weberbauer/August_Weberbauer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/August_Weberbauer/August_Weberbauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">August (ou Augusto) Weberbauer, né le 26 novembre 1871 à Breslau (en province de Silésie) et mort le 16 janvier 1948 à Lima (Pérou), est un botaniste et universitaire allemand, spécialiste de la flore péruvienne, qui dirigea également entre 1906 et 1907 le Jardin botanique de Viktoria (aujourd'hui Limbé) au Kamerun allemand[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">August (ou Augusto) Weberbauer, né le 26 novembre 1871 à Breslau (en province de Silésie) et mort le 16 janvier 1948 à Lima (Pérou), est un botaniste et universitaire allemand, spécialiste de la flore péruvienne, qui dirigea également entre 1906 et 1907 le Jardin botanique de Viktoria (aujourd'hui Limbé) au Kamerun allemand.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'herbier de l'Université nationale agraire La Molina (UNALM) de Lima porte son nom (Herbario Augusto Weberbauer[2]).
-Plusieurs taxons lui rendent hommage[1], tels que le genre Weberbauerocereus et les espèces Guadua weberbaueri, Masdevallia weberbaueri, Matucana weberbaueri (de) ou Paramongaia weberbaueri .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'herbier de l'Université nationale agraire La Molina (UNALM) de Lima porte son nom (Herbario Augusto Weberbauer).
+Plusieurs taxons lui rendent hommage, tels que le genre Weberbauerocereus et les espèces Guadua weberbaueri, Masdevallia weberbaueri, Matucana weberbaueri (de) ou Paramongaia weberbaueri .
 </t>
         </is>
       </c>
